--- a/MCD_MLD/5 Zéro Faute.xlsx
+++ b/MCD_MLD/5 Zéro Faute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>SousCategories</t>
   </si>
@@ -24,10 +24,124 @@
     <t>Categories</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Fautes</t>
+  </si>
+  <si>
+    <t>Produits</t>
+  </si>
+  <si>
+    <t>Modeles</t>
+  </si>
+  <si>
+    <t>idCategorie</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>idSousCategorie</t>
+  </si>
+  <si>
+    <t>codeFaute</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>dateDetection</t>
+  </si>
+  <si>
+    <t>commentaire</t>
+  </si>
+  <si>
+    <t>dateReparation</t>
+  </si>
+  <si>
+    <t>numeroSerie</t>
+  </si>
+  <si>
+    <t>numeroProduit</t>
+  </si>
+  <si>
+    <t>anneeProduction</t>
+  </si>
+  <si>
+    <t>codeModele</t>
+  </si>
+  <si>
+    <t>dateDeMiseSurLeMarche</t>
+  </si>
+  <si>
+    <t>123456AZ</t>
+  </si>
+  <si>
+    <t>654321XY</t>
+  </si>
+  <si>
+    <t>epluchepatate3000</t>
+  </si>
+  <si>
+    <t>epluchepatate2000</t>
+  </si>
+  <si>
+    <t>000000AA</t>
+  </si>
+  <si>
+    <t>epluchepatateloriginal</t>
+  </si>
+  <si>
+    <t>lame</t>
+  </si>
+  <si>
+    <t>manche</t>
+  </si>
+  <si>
+    <t>fissure</t>
+  </si>
+  <si>
+    <t>emoussé</t>
+  </si>
+  <si>
+    <t>couleur</t>
+  </si>
+  <si>
+    <t>regroupe les fautes qui concerne la lame du couteau économe</t>
+  </si>
+  <si>
+    <t>regroupe les problèmes de couleur de manche</t>
+  </si>
+  <si>
+    <t>regroupe les probleme de tranchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fissure sur le dos de lame</t>
+  </si>
+  <si>
+    <t>le fil fait ~1mm</t>
+  </si>
+  <si>
+    <t>fil trop large</t>
+  </si>
+  <si>
+    <t>lame ébréché sur le fil</t>
+  </si>
+  <si>
+    <t>Classifications</t>
+  </si>
+  <si>
+    <t>idClassifications</t>
+  </si>
+  <si>
+    <t>idFaute</t>
+  </si>
+  <si>
+    <t>idProduit</t>
+  </si>
+  <si>
+    <t>idModele</t>
   </si>
 </sst>
 </file>
@@ -43,15 +157,87 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -118,23 +304,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,57 +829,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R4"/>
+  <dimension ref="A2:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.7109375" customWidth="1"/>
+    <col min="31" max="31" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="L3" s="1" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="3"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24"/>
+      <c r="AB3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="L4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="50">
+        <v>1</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>2</v>
+      </c>
+      <c r="N5" s="61">
+        <v>1</v>
+      </c>
+      <c r="O5" s="53">
+        <v>42</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>36884</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="54"/>
+      <c r="T5" s="61">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="39">
+        <v>1</v>
+      </c>
+      <c r="W5" s="39">
+        <v>123456</v>
+      </c>
+      <c r="X5" s="39">
+        <v>1234</v>
+      </c>
+      <c r="Y5" s="39">
+        <v>1999</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="E6" s="48">
+        <v>2</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="51">
+        <v>2</v>
+      </c>
+      <c r="K6" s="51">
+        <v>1</v>
+      </c>
+      <c r="L6" s="17">
+        <v>3</v>
+      </c>
+      <c r="N6" s="62">
+        <v>2</v>
+      </c>
+      <c r="O6" s="56">
+        <v>38</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>36886</v>
+      </c>
+      <c r="R6" s="62"/>
+      <c r="S6" s="57">
+        <v>36887</v>
+      </c>
+      <c r="T6" s="62">
+        <v>2</v>
+      </c>
+      <c r="U6" s="69"/>
+      <c r="V6" s="40">
+        <v>2</v>
+      </c>
+      <c r="W6" s="40">
+        <v>654321</v>
+      </c>
+      <c r="X6" s="40">
+        <v>1234</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>2000</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>36519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E7" s="49">
+        <v>3</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="J7" s="51">
+        <v>3</v>
+      </c>
+      <c r="K7" s="51">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1</v>
+      </c>
+      <c r="N7" s="63">
+        <v>3</v>
+      </c>
+      <c r="O7" s="58">
+        <v>74</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="60">
+        <v>36886</v>
+      </c>
+      <c r="R7" s="63"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="63">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="40">
+        <v>3</v>
+      </c>
+      <c r="W7" s="40">
+        <v>654321</v>
+      </c>
+      <c r="X7" s="40">
+        <v>4321</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>2000</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="44">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>36885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J8" s="52">
+        <v>4</v>
+      </c>
+      <c r="K8" s="52">
+        <v>2</v>
+      </c>
+      <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="41">
+        <v>4</v>
+      </c>
+      <c r="W8" s="41">
+        <v>664422</v>
+      </c>
+      <c r="X8" s="41">
+        <v>1337</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>2004</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:T3"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MCD_MLD/5 Zéro Faute.xlsx
+++ b/MCD_MLD/5 Zéro Faute.xlsx
@@ -120,9 +120,6 @@
     <t xml:space="preserve"> fissure sur le dos de lame</t>
   </si>
   <si>
-    <t>le fil fait ~1mm</t>
-  </si>
-  <si>
     <t>fil trop large</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>idModele</t>
+  </si>
+  <si>
+    <t>le fil fait 1mm</t>
   </si>
 </sst>
 </file>
@@ -421,35 +421,8 @@
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -459,38 +432,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,11 +469,62 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,373 +865,373 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="E3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="22" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="J3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="N3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
-      <c r="AB3" s="29" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AB3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="57"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="66" t="s">
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="W4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="25" t="s">
+      <c r="AB4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AD4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AE4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="19">
+      <c r="G5" s="30"/>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="33">
         <v>1</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="33">
         <v>1</v>
       </c>
-      <c r="L5" s="16">
-        <v>2</v>
-      </c>
-      <c r="N5" s="61">
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="44">
         <v>1</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="36">
         <v>42</v>
       </c>
-      <c r="P5" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="55">
+      <c r="P5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="38">
         <v>36884</v>
       </c>
-      <c r="R5" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="61">
+      <c r="R5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="37"/>
+      <c r="T5" s="44">
         <v>1</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="39">
+      <c r="V5" s="22">
         <v>1</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="22">
         <v>123456</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="22">
         <v>1234</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="22">
         <v>1999</v>
       </c>
-      <c r="Z5" s="26">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="43">
+      <c r="Z5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="26">
         <v>1</v>
       </c>
-      <c r="AC5" s="42" t="s">
+      <c r="AC5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="42" t="s">
+      <c r="AD5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="18">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
-        <v>2</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="29">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="48">
-        <v>2</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="C6" s="6"/>
+      <c r="E6" s="31">
+        <v>2</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="51">
-        <v>2</v>
-      </c>
-      <c r="K6" s="51">
+      <c r="J6" s="34">
+        <v>2</v>
+      </c>
+      <c r="K6" s="34">
         <v>1</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="8">
         <v>3</v>
       </c>
-      <c r="N6" s="62">
-        <v>2</v>
-      </c>
-      <c r="O6" s="56">
+      <c r="N6" s="45">
+        <v>2</v>
+      </c>
+      <c r="O6" s="39">
         <v>38</v>
       </c>
-      <c r="P6" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="57">
+      <c r="P6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="40">
         <v>36886</v>
       </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="57">
+      <c r="R6" s="45"/>
+      <c r="S6" s="40">
         <v>36887</v>
       </c>
-      <c r="T6" s="62">
-        <v>2</v>
-      </c>
-      <c r="U6" s="69"/>
-      <c r="V6" s="40">
-        <v>2</v>
-      </c>
-      <c r="W6" s="40">
+      <c r="T6" s="45">
+        <v>2</v>
+      </c>
+      <c r="U6" s="51"/>
+      <c r="V6" s="23">
+        <v>2</v>
+      </c>
+      <c r="W6" s="23">
         <v>654321</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="23">
         <v>1234</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="23">
         <v>2000</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="15">
         <v>3</v>
       </c>
-      <c r="AB6" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="43" t="s">
+      <c r="AB6" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="43" t="s">
+      <c r="AD6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="34">
+      <c r="AE6" s="19">
         <v>36519</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E7" s="49">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="21">
-        <v>2</v>
-      </c>
-      <c r="J7" s="51">
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="34">
         <v>3</v>
       </c>
-      <c r="K7" s="51">
-        <v>2</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="K7" s="34">
+        <v>2</v>
+      </c>
+      <c r="L7" s="8">
         <v>1</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="46">
         <v>3</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="41">
         <v>74</v>
       </c>
-      <c r="P7" s="63" t="s">
+      <c r="P7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="43">
         <v>36886</v>
       </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="63">
+      <c r="R7" s="46"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="46">
         <v>2</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="40">
+      <c r="V7" s="23">
         <v>3</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="23">
         <v>654321</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="23">
         <v>4321</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="23">
         <v>2000</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="15">
         <v>3</v>
       </c>
-      <c r="AB7" s="44">
+      <c r="AB7" s="27">
         <v>3</v>
       </c>
-      <c r="AC7" s="44" t="s">
+      <c r="AC7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="44" t="s">
+      <c r="AD7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AE7" s="35">
+      <c r="AE7" s="20">
         <v>36885</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J8" s="52">
+      <c r="J8" s="35">
         <v>4</v>
       </c>
-      <c r="K8" s="52">
-        <v>2</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="K8" s="35">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
         <v>2</v>
       </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="41">
+      <c r="V8" s="24">
         <v>4</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="24">
         <v>664422</v>
       </c>
-      <c r="X8" s="41">
+      <c r="X8" s="24">
         <v>1337</v>
       </c>
-      <c r="Y8" s="41">
+      <c r="Y8" s="24">
         <v>2004</v>
       </c>
-      <c r="Z8" s="28">
+      <c r="Z8" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="AB3:AE3"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N3:T3"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
